--- a/app/data/SchoolCalendar.xlsx
+++ b/app/data/SchoolCalendar.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9AA44D-40F7-4D4E-AEAE-95E56924044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC49998-68FD-9548-B555-C7669A644C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="24900" windowHeight="17500" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="3000" yWindow="500" windowWidth="27060" windowHeight="23440" activeTab="1" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
+    <sheet name="2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023'!$A$1:$F$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2024'!$A$1:$F$330</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -439,9 +441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB66886-AAD9-A442-BF69-AADD50D3EDBE}">
   <dimension ref="A1:F327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6068,4 +6070,5696 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101A293-5077-C344-BF63-0B1B07E11BB9}">
+  <dimension ref="A1:F330"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45542</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45570</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>17</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45598</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>12</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>14</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>22</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>11</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>12</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>14</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>15</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>16</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>17</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>18</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>19</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>21</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B110" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>23</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>24</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B114" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B115" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B119" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B120" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B124" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>15</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>13</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>11</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>9</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B130" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>7</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>14</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>15</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B137" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>17</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B141" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B143" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B145" t="b">
+        <v>0</v>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>18</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B151" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B152" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B153" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>14</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B154" t="b">
+        <v>1</v>
+      </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+      <c r="E154">
+        <v>6</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B155" t="b">
+        <v>1</v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>11</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>10</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159">
+        <v>11</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B160" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>12</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>13</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B163" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>16</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>17</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>18</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45710</v>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>35</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>34</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>33</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>32</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>31</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>30</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>29</v>
+      </c>
+      <c r="E180">
+        <v>7</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181" t="b">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>28</v>
+      </c>
+      <c r="E181">
+        <v>8</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182" t="b">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>27</v>
+      </c>
+      <c r="E182">
+        <v>9</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B183" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183" t="b">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>26</v>
+      </c>
+      <c r="E183">
+        <v>10</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B184" t="b">
+        <v>1</v>
+      </c>
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>25</v>
+      </c>
+      <c r="E184">
+        <v>11</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B185" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>24</v>
+      </c>
+      <c r="E185">
+        <v>12</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+      <c r="C186" t="b">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>23</v>
+      </c>
+      <c r="E186">
+        <v>13</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187" t="b">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>22</v>
+      </c>
+      <c r="E187">
+        <v>14</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>21</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B189" t="b">
+        <v>1</v>
+      </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>16</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B190" t="b">
+        <v>1</v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>17</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>17</v>
+      </c>
+      <c r="E192">
+        <v>19</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B193" t="b">
+        <v>0</v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>16</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194" t="b">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>21</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
+      </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>14</v>
+      </c>
+      <c r="E195">
+        <v>22</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
+      </c>
+      <c r="C196" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>13</v>
+      </c>
+      <c r="E196">
+        <v>23</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>12</v>
+      </c>
+      <c r="E197">
+        <v>24</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B198" t="b">
+        <v>1</v>
+      </c>
+      <c r="C198" t="b">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>11</v>
+      </c>
+      <c r="E198">
+        <v>25</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B199" t="b">
+        <v>1</v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>26</v>
+      </c>
+      <c r="F199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B200" t="b">
+        <v>0</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>27</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B201" t="b">
+        <v>0</v>
+      </c>
+      <c r="C201" t="b">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>28</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>29</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>6</v>
+      </c>
+      <c r="E203">
+        <v>30</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" t="b">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>31</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>32</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B206" t="b">
+        <v>1</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206">
+        <v>33</v>
+      </c>
+      <c r="F206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>34</v>
+      </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>35</v>
+      </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B210" t="b">
+        <v>1</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B211" t="b">
+        <v>1</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B212" t="b">
+        <v>1</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B213" t="b">
+        <v>1</v>
+      </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>8</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214">
+        <v>5</v>
+      </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45753</v>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <v>6</v>
+      </c>
+      <c r="F215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B216" t="b">
+        <v>1</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>7</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B217" t="b">
+        <v>1</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>8</v>
+      </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B218" t="b">
+        <v>1</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>9</v>
+      </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B219" t="b">
+        <v>1</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>10</v>
+      </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B220" t="b">
+        <v>1</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>11</v>
+      </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45760</v>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+      <c r="F228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45767</v>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+      <c r="F229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B230" t="b">
+        <v>1</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>35</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B231" t="b">
+        <v>1</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>34</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B232" t="b">
+        <v>1</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>33</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B233" t="b">
+        <v>1</v>
+      </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>32</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+      <c r="F233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B234" t="b">
+        <v>1</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>31</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>30</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="F235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236">
+        <v>7</v>
+      </c>
+      <c r="F236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B237" t="b">
+        <v>1</v>
+      </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>28</v>
+      </c>
+      <c r="E237">
+        <v>8</v>
+      </c>
+      <c r="F237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B238" t="b">
+        <v>1</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>27</v>
+      </c>
+      <c r="E238">
+        <v>9</v>
+      </c>
+      <c r="F238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B239" t="b">
+        <v>1</v>
+      </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>26</v>
+      </c>
+      <c r="E239">
+        <v>10</v>
+      </c>
+      <c r="F239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B240" t="b">
+        <v>1</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>25</v>
+      </c>
+      <c r="E240">
+        <v>11</v>
+      </c>
+      <c r="F240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B241" t="b">
+        <v>1</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>24</v>
+      </c>
+      <c r="E241">
+        <v>12</v>
+      </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45780</v>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>23</v>
+      </c>
+      <c r="E242">
+        <v>13</v>
+      </c>
+      <c r="F242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>22</v>
+      </c>
+      <c r="E243">
+        <v>14</v>
+      </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B244" t="b">
+        <v>1</v>
+      </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>21</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+      <c r="F244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B245" t="b">
+        <v>1</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>20</v>
+      </c>
+      <c r="E245">
+        <v>16</v>
+      </c>
+      <c r="F245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B246" t="b">
+        <v>1</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>19</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
+      </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B247" t="b">
+        <v>1</v>
+      </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>18</v>
+      </c>
+      <c r="E247">
+        <v>18</v>
+      </c>
+      <c r="F247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B248" t="b">
+        <v>1</v>
+      </c>
+      <c r="C248" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>17</v>
+      </c>
+      <c r="E248">
+        <v>19</v>
+      </c>
+      <c r="F248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>16</v>
+      </c>
+      <c r="E249">
+        <v>20</v>
+      </c>
+      <c r="F249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>15</v>
+      </c>
+      <c r="E250">
+        <v>21</v>
+      </c>
+      <c r="F250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B251" t="b">
+        <v>1</v>
+      </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>14</v>
+      </c>
+      <c r="E251">
+        <v>22</v>
+      </c>
+      <c r="F251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B252" t="b">
+        <v>1</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>13</v>
+      </c>
+      <c r="E252">
+        <v>23</v>
+      </c>
+      <c r="F252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B253" t="b">
+        <v>1</v>
+      </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>24</v>
+      </c>
+      <c r="F253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B254" t="b">
+        <v>1</v>
+      </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>11</v>
+      </c>
+      <c r="E254">
+        <v>25</v>
+      </c>
+      <c r="F254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B255" t="b">
+        <v>1</v>
+      </c>
+      <c r="C255" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>26</v>
+      </c>
+      <c r="F255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>9</v>
+      </c>
+      <c r="E256">
+        <v>27</v>
+      </c>
+      <c r="F256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>8</v>
+      </c>
+      <c r="E257">
+        <v>28</v>
+      </c>
+      <c r="F257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B258" t="b">
+        <v>1</v>
+      </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>7</v>
+      </c>
+      <c r="E258">
+        <v>29</v>
+      </c>
+      <c r="F258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B259" t="b">
+        <v>1</v>
+      </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>30</v>
+      </c>
+      <c r="F259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B260" t="b">
+        <v>1</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <v>31</v>
+      </c>
+      <c r="F260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B261" t="b">
+        <v>1</v>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="E261">
+        <v>32</v>
+      </c>
+      <c r="F261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B262" t="b">
+        <v>1</v>
+      </c>
+      <c r="C262" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+      <c r="E262">
+        <v>33</v>
+      </c>
+      <c r="F262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>34</v>
+      </c>
+      <c r="F263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>35</v>
+      </c>
+      <c r="F264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B266" t="b">
+        <v>1</v>
+      </c>
+      <c r="C266" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>9</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B267" t="b">
+        <v>1</v>
+      </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B268" t="b">
+        <v>1</v>
+      </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <v>3</v>
+      </c>
+      <c r="F268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B269" t="b">
+        <v>1</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>6</v>
+      </c>
+      <c r="E269">
+        <v>4</v>
+      </c>
+      <c r="F269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+      <c r="C270" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>5</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+      <c r="F270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271">
+        <v>6</v>
+      </c>
+      <c r="F271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B272" t="b">
+        <v>1</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>7</v>
+      </c>
+      <c r="F272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B273" t="b">
+        <v>1</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>8</v>
+      </c>
+      <c r="F273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B274" t="b">
+        <v>1</v>
+      </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>9</v>
+      </c>
+      <c r="F274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B276" t="b">
+        <v>1</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>4</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B279" t="b">
+        <v>1</v>
+      </c>
+      <c r="C279" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+      <c r="F279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B282" t="b">
+        <v>1</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B283" t="b">
+        <v>1</v>
+      </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+      <c r="C284" t="b">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+      <c r="E284">
+        <v>3</v>
+      </c>
+      <c r="F284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+      <c r="C285" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+      <c r="F285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B286" t="b">
+        <v>1</v>
+      </c>
+      <c r="C286" t="b">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+      <c r="F286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C289" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B290" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
+      <c r="F291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+      <c r="C292" t="b">
+        <v>0</v>
+      </c>
+      <c r="F292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B294" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C294" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C295" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C296" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/app/data/SchoolCalendar.xlsx
+++ b/app/data/SchoolCalendar.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC49998-68FD-9548-B555-C7669A644C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07C677-D698-7040-B90E-4E3745B4EEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="500" windowWidth="27060" windowHeight="23440" activeTab="1" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="13660" windowHeight="17500" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
     <sheet name="2024" sheetId="2" r:id="rId2"/>
+    <sheet name="BellSchedule" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023'!$A$1:$F$327</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +60,132 @@
   </si>
   <si>
     <t>HalfDay?</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>PeriodStartTime</t>
+  </si>
+  <si>
+    <t>PeriodEndTime</t>
+  </si>
+  <si>
+    <t>9:45am</t>
+  </si>
+  <si>
+    <t>10:20am</t>
+  </si>
+  <si>
+    <t>10:25am</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>11:05am</t>
+  </si>
+  <si>
+    <t>11:40am</t>
+  </si>
+  <si>
+    <t>11:45am</t>
+  </si>
+  <si>
+    <t>12:20pm</t>
+  </si>
+  <si>
+    <t>12:25pm</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>1:05pm</t>
+  </si>
+  <si>
+    <t>1:40pm</t>
+  </si>
+  <si>
+    <t>1:45pm</t>
+  </si>
+  <si>
+    <t>2:20pm</t>
+  </si>
+  <si>
+    <t>2:25pm</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>3:05pm</t>
+  </si>
+  <si>
+    <t>3:45pm</t>
+  </si>
+  <si>
+    <t>8:10am</t>
+  </si>
+  <si>
+    <t>8:55am</t>
+  </si>
+  <si>
+    <t>9:00am</t>
+  </si>
+  <si>
+    <t>9:50am</t>
+  </si>
+  <si>
+    <t>10:40am</t>
+  </si>
+  <si>
+    <t>10:45am</t>
+  </si>
+  <si>
+    <t>11:30am</t>
+  </si>
+  <si>
+    <t>11:35am</t>
+  </si>
+  <si>
+    <t>1:10pm</t>
+  </si>
+  <si>
+    <t>1:15pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>2:05pm</t>
+  </si>
+  <si>
+    <t>2:50pm</t>
+  </si>
+  <si>
+    <t>2:55pm</t>
+  </si>
+  <si>
+    <t>3:40pm</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Pd</t>
   </si>
 </sst>
 </file>
@@ -6076,7 +6203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101A293-5077-C344-BF63-0B1B07E11BB9}">
   <dimension ref="A1:F330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -11762,4 +11889,669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52E645-7182-F54C-B5C4-24121EC0BEA8}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/data/SchoolCalendar.xlsx
+++ b/app/data/SchoolCalendar.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07C677-D698-7040-B90E-4E3745B4EEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B89DA59-1A2A-D64B-AB0A-5824481E1464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="13660" windowHeight="17500" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="26620" windowHeight="25320" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
     <sheet name="2024" sheetId="2" r:id="rId2"/>
-    <sheet name="BellSchedule" sheetId="3" r:id="rId3"/>
+    <sheet name="2025" sheetId="4" r:id="rId3"/>
+    <sheet name="BellSchedule" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023'!$A$1:$F$327</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -192,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +207,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,10 +235,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6204,7 +6213,7 @@
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11892,10 +11901,3073 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896D01E-B92D-D844-9E4F-8216D2A1450E}">
+  <dimension ref="A1:F212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45904</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45905</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>45908</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>45909</v>
+      </c>
+      <c r="B5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45910</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>45911</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45912</v>
+      </c>
+      <c r="B8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45915</v>
+      </c>
+      <c r="B9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45916</v>
+      </c>
+      <c r="B10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>45917</v>
+      </c>
+      <c r="B11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45918</v>
+      </c>
+      <c r="B12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>45919</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>45922</v>
+      </c>
+      <c r="B14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>45923</v>
+      </c>
+      <c r="B15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>45924</v>
+      </c>
+      <c r="B16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>45925</v>
+      </c>
+      <c r="B17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>45926</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>45929</v>
+      </c>
+      <c r="B19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>45931</v>
+      </c>
+      <c r="B21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>45932</v>
+      </c>
+      <c r="B22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>45933</v>
+      </c>
+      <c r="B23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>45936</v>
+      </c>
+      <c r="B24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>45937</v>
+      </c>
+      <c r="B25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>45938</v>
+      </c>
+      <c r="B26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>45940</v>
+      </c>
+      <c r="B28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>45943</v>
+      </c>
+      <c r="B29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>45944</v>
+      </c>
+      <c r="B30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>45945</v>
+      </c>
+      <c r="B31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>45946</v>
+      </c>
+      <c r="B32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>45947</v>
+      </c>
+      <c r="B33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>45952</v>
+      </c>
+      <c r="B36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>45964</v>
+      </c>
+      <c r="B44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45966</v>
+      </c>
+      <c r="B46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>45967</v>
+      </c>
+      <c r="B47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45968</v>
+      </c>
+      <c r="B48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>45973</v>
+      </c>
+      <c r="B51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>45974</v>
+      </c>
+      <c r="B52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>45975</v>
+      </c>
+      <c r="B53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>45978</v>
+      </c>
+      <c r="B54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>45979</v>
+      </c>
+      <c r="B55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>45980</v>
+      </c>
+      <c r="B56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>45981</v>
+      </c>
+      <c r="B57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>45982</v>
+      </c>
+      <c r="B58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>45985</v>
+      </c>
+      <c r="B59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>45986</v>
+      </c>
+      <c r="B60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>45987</v>
+      </c>
+      <c r="B61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>45988</v>
+      </c>
+      <c r="B62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>45989</v>
+      </c>
+      <c r="B63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>45992</v>
+      </c>
+      <c r="B64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>45993</v>
+      </c>
+      <c r="B65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>45994</v>
+      </c>
+      <c r="B66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>45995</v>
+      </c>
+      <c r="B67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>45996</v>
+      </c>
+      <c r="B68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>45999</v>
+      </c>
+      <c r="B69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>46001</v>
+      </c>
+      <c r="B71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>46003</v>
+      </c>
+      <c r="B73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B74" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>46007</v>
+      </c>
+      <c r="B75" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>46008</v>
+      </c>
+      <c r="B76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>46009</v>
+      </c>
+      <c r="B77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>46010</v>
+      </c>
+      <c r="B78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>46013</v>
+      </c>
+      <c r="B79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>46015</v>
+      </c>
+      <c r="B81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>46016</v>
+      </c>
+      <c r="B82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>46017</v>
+      </c>
+      <c r="B83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>46020</v>
+      </c>
+      <c r="B84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>46021</v>
+      </c>
+      <c r="B85" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>46022</v>
+      </c>
+      <c r="B86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>46023</v>
+      </c>
+      <c r="B87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>46024</v>
+      </c>
+      <c r="B88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>46027</v>
+      </c>
+      <c r="B89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>46028</v>
+      </c>
+      <c r="B90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>46029</v>
+      </c>
+      <c r="B91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>46030</v>
+      </c>
+      <c r="B92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>46031</v>
+      </c>
+      <c r="B93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>46034</v>
+      </c>
+      <c r="B94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>46035</v>
+      </c>
+      <c r="B95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>46036</v>
+      </c>
+      <c r="B96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>46037</v>
+      </c>
+      <c r="B97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>46038</v>
+      </c>
+      <c r="B98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>46041</v>
+      </c>
+      <c r="B99" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B100" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>46043</v>
+      </c>
+      <c r="B101" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>46044</v>
+      </c>
+      <c r="B102" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>46045</v>
+      </c>
+      <c r="B103" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>46048</v>
+      </c>
+      <c r="B104" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>46049</v>
+      </c>
+      <c r="B105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>46050</v>
+      </c>
+      <c r="B106" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>46051</v>
+      </c>
+      <c r="B107" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>46052</v>
+      </c>
+      <c r="B108" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B110" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B111" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B112" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B113" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B114" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B115" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B116" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B117" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>46066</v>
+      </c>
+      <c r="B118" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>46069</v>
+      </c>
+      <c r="B119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>46070</v>
+      </c>
+      <c r="B120" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>46071</v>
+      </c>
+      <c r="B121" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B122" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>46073</v>
+      </c>
+      <c r="B123" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>46076</v>
+      </c>
+      <c r="B124" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>46077</v>
+      </c>
+      <c r="B125" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>46078</v>
+      </c>
+      <c r="B126" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>46079</v>
+      </c>
+      <c r="B127" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>46080</v>
+      </c>
+      <c r="B128" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>46083</v>
+      </c>
+      <c r="B129" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>46084</v>
+      </c>
+      <c r="B130" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>46085</v>
+      </c>
+      <c r="B131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>46086</v>
+      </c>
+      <c r="B132" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>46087</v>
+      </c>
+      <c r="B133" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>46090</v>
+      </c>
+      <c r="B134" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>46091</v>
+      </c>
+      <c r="B135" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>46092</v>
+      </c>
+      <c r="B136" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>46093</v>
+      </c>
+      <c r="B137" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>46094</v>
+      </c>
+      <c r="B138" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>46097</v>
+      </c>
+      <c r="B139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>46098</v>
+      </c>
+      <c r="B140" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>46099</v>
+      </c>
+      <c r="B141" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>46100</v>
+      </c>
+      <c r="B142" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>46101</v>
+      </c>
+      <c r="B143" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>46104</v>
+      </c>
+      <c r="B144" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>46105</v>
+      </c>
+      <c r="B145" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>46106</v>
+      </c>
+      <c r="B146" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>46107</v>
+      </c>
+      <c r="B147" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>46108</v>
+      </c>
+      <c r="B148" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>46111</v>
+      </c>
+      <c r="B149" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>46112</v>
+      </c>
+      <c r="B150" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>46113</v>
+      </c>
+      <c r="B151" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>46114</v>
+      </c>
+      <c r="B152" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>46115</v>
+      </c>
+      <c r="B153" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C153" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>46118</v>
+      </c>
+      <c r="B154" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>46119</v>
+      </c>
+      <c r="B155" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>46120</v>
+      </c>
+      <c r="B156" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C156" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>46121</v>
+      </c>
+      <c r="B157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C157" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>46122</v>
+      </c>
+      <c r="B158" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>46125</v>
+      </c>
+      <c r="B159" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C159" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>46126</v>
+      </c>
+      <c r="B160" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>46127</v>
+      </c>
+      <c r="B161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>46128</v>
+      </c>
+      <c r="B162" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>46129</v>
+      </c>
+      <c r="B163" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>46132</v>
+      </c>
+      <c r="B164" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>46133</v>
+      </c>
+      <c r="B165" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C165" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>46134</v>
+      </c>
+      <c r="B166" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>46135</v>
+      </c>
+      <c r="B167" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C167" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>46136</v>
+      </c>
+      <c r="B168" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>46139</v>
+      </c>
+      <c r="B169" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C169" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>46140</v>
+      </c>
+      <c r="B170" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>46141</v>
+      </c>
+      <c r="B171" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>46142</v>
+      </c>
+      <c r="B172" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>46143</v>
+      </c>
+      <c r="B173" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>46146</v>
+      </c>
+      <c r="B174" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>46147</v>
+      </c>
+      <c r="B175" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>46148</v>
+      </c>
+      <c r="B176" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>46149</v>
+      </c>
+      <c r="B177" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>46150</v>
+      </c>
+      <c r="B178" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>46153</v>
+      </c>
+      <c r="B179" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>46154</v>
+      </c>
+      <c r="B180" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C180" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>46155</v>
+      </c>
+      <c r="B181" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>46156</v>
+      </c>
+      <c r="B182" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>46157</v>
+      </c>
+      <c r="B183" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>46160</v>
+      </c>
+      <c r="B184" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C184" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>46161</v>
+      </c>
+      <c r="B185" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>46162</v>
+      </c>
+      <c r="B186" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>46163</v>
+      </c>
+      <c r="B187" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C187" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>46164</v>
+      </c>
+      <c r="B188" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>46167</v>
+      </c>
+      <c r="B189" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>46168</v>
+      </c>
+      <c r="B190" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C190" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>46169</v>
+      </c>
+      <c r="B191" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C191" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>46170</v>
+      </c>
+      <c r="B192" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>46171</v>
+      </c>
+      <c r="B193" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>46174</v>
+      </c>
+      <c r="B194" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>46175</v>
+      </c>
+      <c r="B195" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C195" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>46176</v>
+      </c>
+      <c r="B196" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C196" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>46177</v>
+      </c>
+      <c r="B197" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>46178</v>
+      </c>
+      <c r="B198" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C198" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>46181</v>
+      </c>
+      <c r="B199" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C199" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>46182</v>
+      </c>
+      <c r="B200" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C200" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>46183</v>
+      </c>
+      <c r="B201" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C201" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>46184</v>
+      </c>
+      <c r="B202" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>46185</v>
+      </c>
+      <c r="B203" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>46188</v>
+      </c>
+      <c r="B204" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>46189</v>
+      </c>
+      <c r="B205" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>46190</v>
+      </c>
+      <c r="B206" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C206" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>46191</v>
+      </c>
+      <c r="B207" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>46192</v>
+      </c>
+      <c r="B208" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>46195</v>
+      </c>
+      <c r="B209" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>46196</v>
+      </c>
+      <c r="B210" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>46197</v>
+      </c>
+      <c r="B211" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>46198</v>
+      </c>
+      <c r="B212" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C212" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52E645-7182-F54C-B5C4-24121EC0BEA8}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
